--- a/emlabpy/util/near_scarcity.xlsx
+++ b/emlabpy/util/near_scarcity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\emlabpy\util\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5B3E62-387E-49E1-BE03-090C1917D484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C950CDE0-39C3-4BEE-A8AA-9C10394E94DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34005" yWindow="-14130" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9105" yWindow="5865" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="derating_factors" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Lithium ion battery</t>
   </si>
@@ -59,6 +59,24 @@
   </si>
   <si>
     <t>mean</t>
+  </si>
+  <si>
+    <t>LOLE</t>
+  </si>
+  <si>
+    <t>1.5 LOLE</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>0 LOLE</t>
   </si>
 </sst>
 </file>
@@ -427,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,31 +1643,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1">
         <v>4</v>
       </c>
-      <c r="C1" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>27011.15792887026</v>
+      </c>
+      <c r="C2">
         <v>27248.700798954931</v>
       </c>
-      <c r="C2">
-        <v>27011.15792887026</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
